--- a/Stats/2022_LogJam_PairStats.xlsx
+++ b/Stats/2022_LogJam_PairStats.xlsx
@@ -24,75 +24,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="24">
   <si>
-    <t>Adam P</t>
+    <t>Adam Parler</t>
   </si>
   <si>
-    <t>Alan A</t>
+    <t>Alan Albrecht</t>
   </si>
   <si>
-    <t>Kevin B</t>
+    <t>Kevin Baar</t>
   </si>
   <si>
-    <t>Jordan H</t>
+    <t>Jordan Harvey</t>
   </si>
   <si>
-    <t>Kaylynn J</t>
+    <t>Kaylynn Jay</t>
   </si>
   <si>
     <t>Michaela F</t>
   </si>
   <si>
-    <t>Sam J</t>
+    <t>Sam Johnson</t>
   </si>
   <si>
-    <t>Annie F</t>
+    <t>Annie Fyfeyfe</t>
   </si>
   <si>
-    <t>Loni K</t>
+    <t>Loni Kringle</t>
   </si>
   <si>
-    <t>Sarah L</t>
+    <t>Sarah Leichty</t>
   </si>
   <si>
-    <t>Harry S</t>
+    <t>Harry Stone</t>
   </si>
   <si>
-    <t>Jason F</t>
+    <t>Jason Fuller</t>
   </si>
   <si>
-    <t>Sam D</t>
+    <t>Sam Diedesch</t>
   </si>
   <si>
-    <t>Josh S</t>
+    <t>Josh Sokolowski</t>
   </si>
   <si>
-    <t>Kira M</t>
+    <t>Kira Murray</t>
   </si>
   <si>
-    <t>Jeremy T</t>
+    <t>Jeremy Tucknies</t>
   </si>
   <si>
-    <t>Kevin F</t>
+    <t>Kevin Fiedler</t>
   </si>
   <si>
-    <t>Trevor K</t>
+    <t>Trevor Kilgannnon</t>
   </si>
   <si>
-    <t>Zac C</t>
+    <t>Zac Carter</t>
   </si>
   <si>
-    <t>Shawn C</t>
+    <t>Shawn Campbell</t>
   </si>
   <si>
-    <t>Erica K</t>
+    <t>Erica Kilgannon</t>
   </si>
   <si>
-    <t>Denny P</t>
+    <t>Denny Porter</t>
   </si>
   <si>
-    <t>Jasmine W</t>
+    <t>Annie Fyfe</t>
+  </si>
+  <si>
+    <t>Jasmine Woo</t>
   </si>
 </sst>
 </file>
@@ -450,13 +453,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,8 +529,11 @@
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,7 +559,7 @@
         <v>10</v>
       </c>
       <c r="I2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J2">
         <v>7</v>
@@ -598,10 +604,13 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+        <v>9</v>
+      </c>
+      <c r="Y2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -627,7 +636,7 @@
         <v>4</v>
       </c>
       <c r="I3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -672,10 +681,13 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+        <v>6</v>
+      </c>
+      <c r="Y3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -701,7 +713,7 @@
         <v>7</v>
       </c>
       <c r="I4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>6</v>
@@ -746,10 +758,13 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+        <v>5</v>
+      </c>
+      <c r="Y4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,7 +790,7 @@
         <v>9</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -820,10 +835,13 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
+        <v>4</v>
+      </c>
+      <c r="Y5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -849,7 +867,7 @@
         <v>6</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>4</v>
@@ -894,10 +912,13 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
+        <v>2</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -923,7 +944,7 @@
         <v>5</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -968,10 +989,13 @@
         <v>0</v>
       </c>
       <c r="X7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
+        <v>4</v>
+      </c>
+      <c r="Y7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -997,7 +1021,7 @@
         <v>21</v>
       </c>
       <c r="I8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -1042,72 +1066,75 @@
         <v>0</v>
       </c>
       <c r="X8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
+        <v>5</v>
+      </c>
+      <c r="Y8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1116,10 +1143,13 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1145,7 +1175,7 @@
         <v>2</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>10</v>
@@ -1190,10 +1220,13 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1219,7 +1252,7 @@
         <v>6</v>
       </c>
       <c r="I11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>5</v>
@@ -1266,8 +1299,11 @@
       <c r="X11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1293,7 +1329,7 @@
         <v>8</v>
       </c>
       <c r="I12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>4</v>
@@ -1338,10 +1374,13 @@
         <v>0</v>
       </c>
       <c r="X12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
+        <v>5</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1367,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>4</v>
@@ -1412,10 +1451,13 @@
         <v>0</v>
       </c>
       <c r="X13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
+        <v>2</v>
+      </c>
+      <c r="Y13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1441,7 +1483,7 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -1488,8 +1530,11 @@
       <c r="X14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="Y14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1515,7 +1560,7 @@
         <v>8</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1560,10 +1605,13 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
+        <v>2</v>
+      </c>
+      <c r="Y15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1589,7 +1637,7 @@
         <v>6</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>4</v>
@@ -1634,10 +1682,13 @@
         <v>0</v>
       </c>
       <c r="X16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
+        <v>3</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1663,7 +1714,7 @@
         <v>9</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -1708,10 +1759,13 @@
         <v>0</v>
       </c>
       <c r="X17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
+        <v>4</v>
+      </c>
+      <c r="Y17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1737,7 +1791,7 @@
         <v>2</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -1782,10 +1836,13 @@
         <v>0</v>
       </c>
       <c r="X18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
+        <v>2</v>
+      </c>
+      <c r="Y18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1811,7 +1868,7 @@
         <v>8</v>
       </c>
       <c r="I19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1856,10 +1913,13 @@
         <v>0</v>
       </c>
       <c r="X19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24">
+        <v>4</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1885,7 +1945,7 @@
         <v>7</v>
       </c>
       <c r="I20">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -1930,10 +1990,13 @@
         <v>0</v>
       </c>
       <c r="X20">
+        <v>6</v>
+      </c>
+      <c r="Y20">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1959,7 +2022,7 @@
         <v>8</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -2006,8 +2069,11 @@
       <c r="X21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="Y21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -2078,10 +2144,13 @@
         <v>0</v>
       </c>
       <c r="X22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -2154,78 +2223,161 @@
       <c r="X23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Y23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
         <v>5</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N24">
         <v>3</v>
       </c>
       <c r="O24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T24">
+        <v>6</v>
+      </c>
+      <c r="U24">
+        <v>3</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>13</v>
+      </c>
+      <c r="Y24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>5</v>
       </c>
-      <c r="U24">
-        <v>3</v>
-      </c>
-      <c r="V24">
-        <v>2</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <v>4</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>3</v>
+      </c>
+      <c r="R25">
+        <v>3</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>5</v>
+      </c>
+      <c r="U25">
+        <v>3</v>
+      </c>
+      <c r="V25">
+        <v>2</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>3</v>
+      </c>
+      <c r="Y25">
         <v>9</v>
       </c>
     </row>
@@ -2236,13 +2388,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2312,8 +2464,11 @@
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2339,7 +2494,7 @@
         <v>-2.606356801093643</v>
       </c>
       <c r="I2">
-        <v>-0.6577922077922077</v>
+        <v>-0.5714285714285714</v>
       </c>
       <c r="J2">
         <v>-1.394155844155844</v>
@@ -2384,10 +2539,13 @@
         <v>0</v>
       </c>
       <c r="X2">
+        <v>-0.08636363636363631</v>
+      </c>
+      <c r="Y2">
         <v>-1.136363636363636</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2413,7 +2571,7 @@
         <v>-1.488892686261107</v>
       </c>
       <c r="I3">
-        <v>0.1558441558441559</v>
+        <v>-0.5714285714285714</v>
       </c>
       <c r="J3">
         <v>-1.157792207792208</v>
@@ -2458,10 +2616,13 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="X3">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="Y3">
         <v>-0.6363636363636364</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2487,7 +2648,7 @@
         <v>-2.342002734107997</v>
       </c>
       <c r="I4">
-        <v>-0.8441558441558441</v>
+        <v>-0.5714285714285714</v>
       </c>
       <c r="J4">
         <v>-0.7388926862611073</v>
@@ -2534,8 +2695,11 @@
       <c r="X4">
         <v>-0.2727272727272727</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4">
+        <v>-0.2727272727272727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2608,8 +2772,11 @@
       <c r="X5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2635,7 +2802,7 @@
         <v>0.1390977443609023</v>
       </c>
       <c r="I6">
-        <v>0.04220779220779225</v>
+        <v>-0.5714285714285714</v>
       </c>
       <c r="J6">
         <v>0.1422077922077922</v>
@@ -2680,10 +2847,13 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="X6">
+        <v>0.6136363636363636</v>
+      </c>
+      <c r="Y6">
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2709,7 +2879,7 @@
         <v>-0.2972658920027342</v>
       </c>
       <c r="I7">
-        <v>1.213636363636364</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0.2741626794258373</v>
@@ -2754,10 +2924,13 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="X7">
+        <v>1.213636363636364</v>
+      </c>
+      <c r="Y7">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2783,7 +2956,7 @@
         <v>-3.533424470266575</v>
       </c>
       <c r="I8">
-        <v>0.1136363636363636</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>-0.7174641148325359</v>
@@ -2828,72 +3001,75 @@
         <v>0</v>
       </c>
       <c r="X8">
+        <v>0.1136363636363636</v>
+      </c>
+      <c r="Y8">
         <v>-1.386363636363636</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.6577922077922077</v>
+        <v>-0.5714285714285714</v>
       </c>
       <c r="C9">
-        <v>0.1558441558441559</v>
+        <v>-0.5714285714285714</v>
       </c>
       <c r="D9">
-        <v>-0.8441558441558441</v>
+        <v>-0.5714285714285714</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04220779220779225</v>
+        <v>-0.5714285714285714</v>
       </c>
       <c r="G9">
-        <v>1.213636363636364</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.1136363636363636</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.7058441558441559</v>
+        <v>-0.5714285714285714</v>
       </c>
       <c r="J9">
-        <v>-0.1214285714285714</v>
+        <v>-0.5714285714285714</v>
       </c>
       <c r="K9">
-        <v>-0.0714285714285714</v>
+        <v>-0.5714285714285714</v>
       </c>
       <c r="L9">
-        <v>0.3272727272727274</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9136363636363637</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -2902,10 +3078,13 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-0.6363636363636364</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2931,7 +3110,7 @@
         <v>-0.7174641148325359</v>
       </c>
       <c r="I10">
-        <v>-0.1214285714285714</v>
+        <v>-0.5714285714285714</v>
       </c>
       <c r="J10">
         <v>-0.8874572795625426</v>
@@ -2976,10 +3155,13 @@
         <v>0</v>
       </c>
       <c r="X10">
+        <v>0.45</v>
+      </c>
+      <c r="Y10">
         <v>0.6636363636363637</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -3005,7 +3187,7 @@
         <v>-1.094736842105263</v>
       </c>
       <c r="I11">
-        <v>-0.0714285714285714</v>
+        <v>-0.5714285714285714</v>
       </c>
       <c r="J11">
         <v>-0.1661654135338347</v>
@@ -3050,10 +3232,13 @@
         <v>0</v>
       </c>
       <c r="X11">
+        <v>0.5</v>
+      </c>
+      <c r="Y11">
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -3079,7 +3264,7 @@
         <v>-1.563431305536569</v>
       </c>
       <c r="I12">
-        <v>0.3272727272727274</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>-0.07057416267942596</v>
@@ -3124,10 +3309,13 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="X12">
+        <v>0.3272727272727274</v>
+      </c>
+      <c r="Y12">
         <v>-0.02272727272727271</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3153,7 +3341,7 @@
         <v>-1.659022556390978</v>
       </c>
       <c r="I13">
-        <v>0.9136363636363637</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0.3052631578947368</v>
@@ -3198,10 +3386,13 @@
         <v>0</v>
       </c>
       <c r="X13">
+        <v>0.9136363636363637</v>
+      </c>
+      <c r="Y13">
         <v>-0.45</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -3272,10 +3463,13 @@
         <v>0</v>
       </c>
       <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -3301,7 +3495,7 @@
         <v>-1.244155844155844</v>
       </c>
       <c r="I15">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>-1.509090909090909</v>
@@ -3346,10 +3540,13 @@
         <v>0</v>
       </c>
       <c r="X15">
+        <v>0.75</v>
+      </c>
+      <c r="Y15">
         <v>-0.45</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -3375,7 +3572,7 @@
         <v>-0.6609022556390978</v>
       </c>
       <c r="I16">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0.2</v>
@@ -3420,10 +3617,13 @@
         <v>0</v>
       </c>
       <c r="X16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
+        <v>0.3</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -3449,7 +3649,7 @@
         <v>-0.08636363636363631</v>
       </c>
       <c r="I17">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>-0.1363636363636364</v>
@@ -3494,10 +3694,13 @@
         <v>0</v>
       </c>
       <c r="X17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
+        <v>0.25</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -3523,7 +3726,7 @@
         <v>-1.16473000683527</v>
       </c>
       <c r="I18">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0.2961722488038274</v>
@@ -3568,10 +3771,13 @@
         <v>0</v>
       </c>
       <c r="X18">
+        <v>1.05</v>
+      </c>
+      <c r="Y18">
         <v>0.3636363636363636</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -3597,7 +3803,7 @@
         <v>0.2657894736842104</v>
       </c>
       <c r="I19">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0.9241626794258375</v>
@@ -3642,10 +3848,13 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="X19">
+        <v>0.5</v>
+      </c>
+      <c r="Y19">
         <v>0.9136363636363637</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -3671,7 +3880,7 @@
         <v>-1.089473684210526</v>
       </c>
       <c r="I20">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>-0.01220095693779899</v>
@@ -3716,10 +3925,13 @@
         <v>0</v>
       </c>
       <c r="X20">
+        <v>0.45</v>
+      </c>
+      <c r="Y20">
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -3745,7 +3957,7 @@
         <v>0.9111073137388929</v>
       </c>
       <c r="I21">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>-0.3727272727272729</v>
@@ -3790,10 +4002,13 @@
         <v>0</v>
       </c>
       <c r="X21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24">
+        <v>0.5</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -3864,10 +4079,13 @@
         <v>0</v>
       </c>
       <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
         <v>0.3636363636363636</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -3940,16 +4158,19 @@
       <c r="X23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Y23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-1.136363636363636</v>
+        <v>-0.08636363636363631</v>
       </c>
       <c r="C24">
-        <v>-0.6363636363636364</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D24">
         <v>-0.2727272727272727</v>
@@ -3958,60 +4179,140 @@
         <v>0</v>
       </c>
       <c r="F24">
+        <v>0.6136363636363636</v>
+      </c>
+      <c r="G24">
+        <v>1.213636363636364</v>
+      </c>
+      <c r="H24">
+        <v>0.1136363636363636</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.45</v>
+      </c>
+      <c r="K24">
+        <v>0.5</v>
+      </c>
+      <c r="L24">
+        <v>0.3272727272727274</v>
+      </c>
+      <c r="M24">
+        <v>0.9136363636363637</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0.75</v>
+      </c>
+      <c r="P24">
         <v>0.3</v>
       </c>
-      <c r="G24">
+      <c r="Q24">
+        <v>0.25</v>
+      </c>
+      <c r="R24">
+        <v>1.05</v>
+      </c>
+      <c r="S24">
+        <v>0.5</v>
+      </c>
+      <c r="T24">
+        <v>0.45</v>
+      </c>
+      <c r="U24">
+        <v>0.5</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>1.277272727272727</v>
+      </c>
+      <c r="Y24">
+        <v>-0.6363636363636364</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>-1.136363636363636</v>
+      </c>
+      <c r="C25">
+        <v>-0.6363636363636364</v>
+      </c>
+      <c r="D25">
+        <v>-0.2727272727272727</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0.3</v>
+      </c>
+      <c r="G25">
         <v>-0.5</v>
       </c>
-      <c r="H24">
+      <c r="H25">
         <v>-1.386363636363636</v>
       </c>
-      <c r="I24">
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.6636363636363637</v>
+      </c>
+      <c r="K25">
+        <v>0.25</v>
+      </c>
+      <c r="L25">
+        <v>-0.02272727272727271</v>
+      </c>
+      <c r="M25">
+        <v>-0.45</v>
+      </c>
+      <c r="N25">
+        <v>-0.5</v>
+      </c>
+      <c r="O25">
+        <v>-0.45</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="S25">
+        <v>0.9136363636363637</v>
+      </c>
+      <c r="T25">
+        <v>0.3</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
         <v>-0.6363636363636364</v>
       </c>
-      <c r="J24">
-        <v>0.6636363636363637</v>
-      </c>
-      <c r="K24">
-        <v>0.25</v>
-      </c>
-      <c r="L24">
-        <v>-0.02272727272727271</v>
-      </c>
-      <c r="M24">
-        <v>-0.45</v>
-      </c>
-      <c r="N24">
-        <v>-0.5</v>
-      </c>
-      <c r="O24">
-        <v>-0.45</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="S24">
-        <v>0.9136363636363637</v>
-      </c>
-      <c r="T24">
-        <v>0.3</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
+      <c r="Y25">
         <v>-0.4727272727272727</v>
       </c>
     </row>
@@ -4022,13 +4323,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4098,8 +4399,11 @@
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4125,7 +4429,7 @@
         <v>-3.125145708846897</v>
       </c>
       <c r="I2">
-        <v>-2.44375712007291</v>
+        <v>-0.238095238095238</v>
       </c>
       <c r="J2">
         <v>-1.821575198994554</v>
@@ -4170,10 +4474,13 @@
         <v>0</v>
       </c>
       <c r="X2">
+        <v>-2.205661881977671</v>
+      </c>
+      <c r="Y2">
         <v>-2.129346092503987</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4199,7 +4506,7 @@
         <v>-2.815208475734791</v>
       </c>
       <c r="I3">
-        <v>-0.6704716336295284</v>
+        <v>-0.5714285714285714</v>
       </c>
       <c r="J3">
         <v>-0.8002653260717779</v>
@@ -4244,10 +4551,13 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="X3">
+        <v>-0.09904306220095699</v>
+      </c>
+      <c r="Y3">
         <v>-1.605661881977671</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4273,7 +4583,7 @@
         <v>-2.418318523581681</v>
       </c>
       <c r="I4">
-        <v>-2.330120756436546</v>
+        <v>-0.9047619047619047</v>
       </c>
       <c r="J4">
         <v>-1.49964537443315</v>
@@ -4318,10 +4628,13 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="X4">
+        <v>-1.425358851674641</v>
+      </c>
+      <c r="Y4">
         <v>-0.9893939393939395</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4347,7 +4660,7 @@
         <v>-1.290248348143085</v>
       </c>
       <c r="I5">
-        <v>-0.5999999999999999</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="J5">
         <v>-2.221340741884036</v>
@@ -4392,10 +4705,13 @@
         <v>0</v>
       </c>
       <c r="X5">
+        <v>-1.266666666666667</v>
+      </c>
+      <c r="Y5">
         <v>0.1710526315789474</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -4421,7 +4737,7 @@
         <v>-0.5296911633923518</v>
       </c>
       <c r="I6">
-        <v>-0.9841079972658919</v>
+        <v>-0.9047619047619047</v>
       </c>
       <c r="J6">
         <v>0.4997346739282224</v>
@@ -4466,10 +4782,13 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="X6">
+        <v>-0.07934609250398722</v>
+      </c>
+      <c r="Y6">
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -4495,7 +4814,7 @@
         <v>-0.9660547997559883</v>
       </c>
       <c r="I7">
-        <v>0.1969696969696971</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0.2741626794258373</v>
@@ -4540,10 +4859,13 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="X7">
+        <v>0.1969696969696971</v>
+      </c>
+      <c r="Y7">
         <v>-1.216666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -4569,7 +4891,7 @@
         <v>-5.1306514085801</v>
       </c>
       <c r="I8">
-        <v>-1.179346092503987</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="J8">
         <v>-0.3599372331121059</v>
@@ -4614,72 +4936,75 @@
         <v>0</v>
       </c>
       <c r="X8">
+        <v>-1.846012759170654</v>
+      </c>
+      <c r="Y8">
         <v>-1.386363636363636</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-2.44375712007291</v>
+        <v>-0.238095238095238</v>
       </c>
       <c r="C9">
-        <v>-0.6704716336295284</v>
+        <v>-0.5714285714285714</v>
       </c>
       <c r="D9">
-        <v>-2.330120756436546</v>
+        <v>-0.9047619047619047</v>
       </c>
       <c r="E9">
-        <v>-0.5999999999999999</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="F9">
-        <v>-0.9841079972658919</v>
+        <v>-0.9047619047619047</v>
       </c>
       <c r="G9">
-        <v>0.1969696969696971</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>-1.179346092503987</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="I9">
-        <v>-2.65643654591023</v>
+        <v>-0.5714285714285714</v>
       </c>
       <c r="J9">
-        <v>0.1285714285714286</v>
+        <v>-0.9047619047619047</v>
       </c>
       <c r="K9">
-        <v>-1.950375939849624</v>
+        <v>-0.9047619047619047</v>
       </c>
       <c r="L9">
-        <v>-0.2227272727272727</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="M9">
-        <v>0.3373205741626795</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>-0.4166666666666667</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="O9">
-        <v>-0.1359649122807017</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="P9">
-        <v>-0.1666666666666666</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="Q9">
-        <v>-0.9026315789473683</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>0.1403508771929826</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="S9">
-        <v>-1.083333333333333</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="T9">
-        <v>-1.476315789473684</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="U9">
-        <v>-0.5499999999999999</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -4688,10 +5013,13 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-1.629346092503987</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -4717,7 +5045,7 @@
         <v>-0.3599372331121059</v>
       </c>
       <c r="I10">
-        <v>0.1285714285714286</v>
+        <v>-0.9047619047619047</v>
       </c>
       <c r="J10">
         <v>-0.9573497526808225</v>
@@ -4762,10 +5090,13 @@
         <v>0</v>
       </c>
       <c r="X10">
+        <v>1.033333333333333</v>
+      </c>
+      <c r="Y10">
         <v>0.6636363636363637</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -4791,7 +5122,7 @@
         <v>-1.230192416525184</v>
       </c>
       <c r="I11">
-        <v>-1.950375939849624</v>
+        <v>-0.9047619047619047</v>
       </c>
       <c r="J11">
         <v>-0.510251435039211</v>
@@ -4836,10 +5167,13 @@
         <v>0</v>
       </c>
       <c r="X11">
+        <v>-1.045614035087719</v>
+      </c>
+      <c r="Y11">
         <v>-1.135964912280702</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -4865,7 +5199,7 @@
         <v>-1.865553546623156</v>
       </c>
       <c r="I12">
-        <v>-0.2227272727272727</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="J12">
         <v>0.5369527190410039</v>
@@ -4910,10 +5244,13 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="X12">
+        <v>-0.8893939393939394</v>
+      </c>
+      <c r="Y12">
         <v>-0.2990430622009569</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -4939,7 +5276,7 @@
         <v>-2.268162341337214</v>
       </c>
       <c r="I13">
-        <v>0.3373205741626795</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>-0.3721561969439728</v>
@@ -4984,10 +5321,13 @@
         <v>0</v>
       </c>
       <c r="X13">
+        <v>0.3373205741626795</v>
+      </c>
+      <c r="Y13">
         <v>-0.2789473684210526</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -5013,7 +5353,7 @@
         <v>-1.530568356374808</v>
       </c>
       <c r="I14">
-        <v>-0.4166666666666667</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="J14">
         <v>0.1772727272727272</v>
@@ -5058,10 +5398,13 @@
         <v>0</v>
       </c>
       <c r="X14">
+        <v>-0.08333333333333337</v>
+      </c>
+      <c r="Y14">
         <v>-1.469298245614035</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -5087,7 +5430,7 @@
         <v>-2.437138300296195</v>
       </c>
       <c r="I15">
-        <v>-0.1359649122807017</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="J15">
         <v>-1.509090909090909</v>
@@ -5132,10 +5475,13 @@
         <v>0</v>
       </c>
       <c r="X15">
+        <v>0.1973684210526316</v>
+      </c>
+      <c r="Y15">
         <v>-0.002631578947368318</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -5161,7 +5507,7 @@
         <v>-0.6533753739186676</v>
       </c>
       <c r="I16">
-        <v>-0.1666666666666666</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="J16">
         <v>0.3317204301075268</v>
@@ -5206,10 +5552,13 @@
         <v>0</v>
       </c>
       <c r="X16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -5235,7 +5584,7 @@
         <v>-1.274450789730925</v>
       </c>
       <c r="I17">
-        <v>-0.9026315789473683</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0.196969696969697</v>
@@ -5280,10 +5629,13 @@
         <v>0</v>
       </c>
       <c r="X17">
+        <v>-0.9026315789473683</v>
+      </c>
+      <c r="Y17">
         <v>0.4236842105263158</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -5309,7 +5661,7 @@
         <v>-1.46473000683527</v>
       </c>
       <c r="I18">
-        <v>0.1403508771929826</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="J18">
         <v>0.6295055821371608</v>
@@ -5354,10 +5706,13 @@
         <v>0</v>
       </c>
       <c r="X18">
+        <v>0.4736842105263159</v>
+      </c>
+      <c r="Y18">
         <v>-0.3293460925039872</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -5383,7 +5738,7 @@
         <v>0.1298245614035086</v>
       </c>
       <c r="I19">
-        <v>-1.083333333333333</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="J19">
         <v>1.507496012759171</v>
@@ -5428,10 +5783,13 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="X19">
+        <v>-1.416666666666667</v>
+      </c>
+      <c r="Y19">
         <v>0.496969696969697</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -5457,7 +5815,7 @@
         <v>-2.417911714770798</v>
       </c>
       <c r="I20">
-        <v>-1.476315789473684</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="J20">
         <v>-0.3562869784431753</v>
@@ -5502,10 +5860,13 @@
         <v>0</v>
       </c>
       <c r="X20">
+        <v>-1.142982456140351</v>
+      </c>
+      <c r="Y20">
         <v>-0.2456140350877192</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -5531,7 +5892,7 @@
         <v>1.968634195459323</v>
       </c>
       <c r="I21">
-        <v>-0.5499999999999999</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="J21">
         <v>-0.6818670576735095</v>
@@ -5576,10 +5937,13 @@
         <v>0</v>
       </c>
       <c r="X21">
+        <v>-0.8833333333333333</v>
+      </c>
+      <c r="Y21">
         <v>-0.4166666666666667</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -5650,10 +6014,13 @@
         <v>0</v>
       </c>
       <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
         <v>0.8110047846889953</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -5726,78 +6093,161 @@
       <c r="X23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Y23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24">
+        <v>-2.205661881977671</v>
+      </c>
+      <c r="C24">
+        <v>-0.09904306220095699</v>
+      </c>
+      <c r="D24">
+        <v>-1.425358851674641</v>
+      </c>
+      <c r="E24">
+        <v>-1.266666666666667</v>
+      </c>
+      <c r="F24">
+        <v>-0.07934609250398722</v>
+      </c>
+      <c r="G24">
+        <v>0.1969696969696971</v>
+      </c>
+      <c r="H24">
+        <v>-1.846012759170654</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1.033333333333333</v>
+      </c>
+      <c r="K24">
+        <v>-1.045614035087719</v>
+      </c>
+      <c r="L24">
+        <v>-0.8893939393939394</v>
+      </c>
+      <c r="M24">
+        <v>0.3373205741626795</v>
+      </c>
+      <c r="N24">
+        <v>-0.08333333333333337</v>
+      </c>
+      <c r="O24">
+        <v>0.1973684210526316</v>
+      </c>
+      <c r="P24">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="Q24">
+        <v>-0.9026315789473683</v>
+      </c>
+      <c r="R24">
+        <v>0.4736842105263159</v>
+      </c>
+      <c r="S24">
+        <v>-1.416666666666667</v>
+      </c>
+      <c r="T24">
+        <v>-1.142982456140351</v>
+      </c>
+      <c r="U24">
+        <v>-0.8833333333333333</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>-2.085007974481659</v>
+      </c>
+      <c r="Y24">
+        <v>-1.629346092503987</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
         <v>-2.129346092503987</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>-1.605661881977671</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>-0.9893939393939395</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>0.1710526315789474</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <v>0.3</v>
       </c>
-      <c r="G24">
+      <c r="G25">
         <v>-1.216666666666667</v>
       </c>
-      <c r="H24">
+      <c r="H25">
         <v>-1.386363636363636</v>
       </c>
-      <c r="I24">
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.6636363636363637</v>
+      </c>
+      <c r="K25">
+        <v>-1.135964912280702</v>
+      </c>
+      <c r="L25">
+        <v>-0.2990430622009569</v>
+      </c>
+      <c r="M25">
+        <v>-0.2789473684210526</v>
+      </c>
+      <c r="N25">
+        <v>-1.469298245614035</v>
+      </c>
+      <c r="O25">
+        <v>-0.002631578947368318</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.4236842105263158</v>
+      </c>
+      <c r="R25">
+        <v>-0.3293460925039872</v>
+      </c>
+      <c r="S25">
+        <v>0.496969696969697</v>
+      </c>
+      <c r="T25">
+        <v>-0.2456140350877192</v>
+      </c>
+      <c r="U25">
+        <v>-0.4166666666666667</v>
+      </c>
+      <c r="V25">
+        <v>0.8110047846889953</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
         <v>-1.629346092503987</v>
       </c>
-      <c r="J24">
-        <v>0.6636363636363637</v>
-      </c>
-      <c r="K24">
-        <v>-1.135964912280702</v>
-      </c>
-      <c r="L24">
-        <v>-0.2990430622009569</v>
-      </c>
-      <c r="M24">
-        <v>-0.2789473684210526</v>
-      </c>
-      <c r="N24">
-        <v>-1.469298245614035</v>
-      </c>
-      <c r="O24">
-        <v>-0.002631578947368318</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0.4236842105263158</v>
-      </c>
-      <c r="R24">
-        <v>-0.3293460925039872</v>
-      </c>
-      <c r="S24">
-        <v>0.496969696969697</v>
-      </c>
-      <c r="T24">
-        <v>-0.2456140350877192</v>
-      </c>
-      <c r="U24">
-        <v>-0.4166666666666667</v>
-      </c>
-      <c r="V24">
-        <v>0.8110047846889953</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
+      <c r="Y25">
         <v>-1.711323763955343</v>
       </c>
     </row>
@@ -5808,13 +6258,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5884,8 +6334,11 @@
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5911,7 +6364,7 @@
         <v>18</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>8</v>
@@ -5958,8 +6411,11 @@
       <c r="X2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5985,7 +6441,7 @@
         <v>10</v>
       </c>
       <c r="I3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>8</v>
@@ -6030,10 +6486,13 @@
         <v>1</v>
       </c>
       <c r="X3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+        <v>7</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -6059,7 +6518,7 @@
         <v>15</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>7</v>
@@ -6104,10 +6563,13 @@
         <v>1</v>
       </c>
       <c r="X4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+        <v>4</v>
+      </c>
+      <c r="Y4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -6180,8 +6642,11 @@
       <c r="X5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -6207,7 +6672,7 @@
         <v>7</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>10</v>
@@ -6252,10 +6717,13 @@
         <v>1</v>
       </c>
       <c r="X6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
+        <v>2</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -6281,7 +6749,7 @@
         <v>15</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>7</v>
@@ -6326,10 +6794,13 @@
         <v>1</v>
       </c>
       <c r="X7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
+        <v>4</v>
+      </c>
+      <c r="Y7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -6355,7 +6826,7 @@
         <v>34</v>
       </c>
       <c r="I8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>9</v>
@@ -6400,72 +6871,75 @@
         <v>0</v>
       </c>
       <c r="X8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
+        <v>6</v>
+      </c>
+      <c r="Y8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -6474,10 +6948,13 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -6503,7 +6980,7 @@
         <v>9</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>27</v>
@@ -6550,8 +7027,11 @@
       <c r="X10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="Y10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -6577,7 +7057,7 @@
         <v>9</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>8</v>
@@ -6624,8 +7104,11 @@
       <c r="X11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -6651,7 +7134,7 @@
         <v>12</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>11</v>
@@ -6696,10 +7179,13 @@
         <v>1</v>
       </c>
       <c r="X12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
+        <v>4</v>
+      </c>
+      <c r="Y12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -6725,7 +7211,7 @@
         <v>8</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -6772,8 +7258,11 @@
       <c r="X13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="Y13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -6799,7 +7288,7 @@
         <v>7</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>4</v>
@@ -6844,10 +7333,13 @@
         <v>0</v>
       </c>
       <c r="X14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -6873,7 +7365,7 @@
         <v>10</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>10</v>
@@ -6918,10 +7410,13 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
+        <v>3</v>
+      </c>
+      <c r="Y15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -6947,7 +7442,7 @@
         <v>6</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>2</v>
@@ -6992,10 +7487,13 @@
         <v>0</v>
       </c>
       <c r="X16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
+        <v>3</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -7021,7 +7519,7 @@
         <v>4</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>6</v>
@@ -7066,10 +7564,13 @@
         <v>0</v>
       </c>
       <c r="X17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -7095,7 +7596,7 @@
         <v>21</v>
       </c>
       <c r="I18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>15</v>
@@ -7140,10 +7641,13 @@
         <v>0</v>
       </c>
       <c r="X18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
+        <v>6</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -7169,7 +7673,7 @@
         <v>8</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>7</v>
@@ -7214,10 +7718,13 @@
         <v>1</v>
       </c>
       <c r="X19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24">
+        <v>2</v>
+      </c>
+      <c r="Y19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -7243,7 +7750,7 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>14</v>
@@ -7288,10 +7795,13 @@
         <v>0</v>
       </c>
       <c r="X20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24">
+        <v>3</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -7317,7 +7827,7 @@
         <v>11</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>8</v>
@@ -7362,10 +7872,13 @@
         <v>0</v>
       </c>
       <c r="X21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24">
+        <v>2</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -7436,10 +7949,13 @@
         <v>0</v>
       </c>
       <c r="X22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -7512,8 +8028,11 @@
       <c r="X23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Y23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -7521,25 +8040,25 @@
         <v>4</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -7548,42 +8067,122 @@
         <v>2</v>
       </c>
       <c r="L24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M24">
         <v>3</v>
       </c>
       <c r="N24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
+        <v>10</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25">
+        <v>2</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>3</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
         <v>6</v>
       </c>
     </row>
@@ -7594,13 +8193,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7670,8 +8269,11 @@
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7697,7 +8299,7 @@
         <v>28</v>
       </c>
       <c r="I2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J2">
         <v>15</v>
@@ -7742,10 +8344,13 @@
         <v>0</v>
       </c>
       <c r="X2">
+        <v>13</v>
+      </c>
+      <c r="Y2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -7771,7 +8376,7 @@
         <v>14</v>
       </c>
       <c r="I3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>10</v>
@@ -7816,10 +8421,13 @@
         <v>1</v>
       </c>
       <c r="X3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+        <v>13</v>
+      </c>
+      <c r="Y3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -7845,7 +8453,7 @@
         <v>22</v>
       </c>
       <c r="I4">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J4">
         <v>13</v>
@@ -7890,10 +8498,13 @@
         <v>1</v>
       </c>
       <c r="X4">
+        <v>9</v>
+      </c>
+      <c r="Y4">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -7919,7 +8530,7 @@
         <v>16</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>12</v>
@@ -7964,10 +8575,13 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
+        <v>4</v>
+      </c>
+      <c r="Y5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -7993,7 +8607,7 @@
         <v>13</v>
       </c>
       <c r="I6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J6">
         <v>14</v>
@@ -8038,10 +8652,13 @@
         <v>1</v>
       </c>
       <c r="X6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
+        <v>4</v>
+      </c>
+      <c r="Y6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -8067,7 +8684,7 @@
         <v>20</v>
       </c>
       <c r="I7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>7</v>
@@ -8112,10 +8729,13 @@
         <v>1</v>
       </c>
       <c r="X7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
+        <v>8</v>
+      </c>
+      <c r="Y7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -8141,7 +8761,7 @@
         <v>55</v>
       </c>
       <c r="I8">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>11</v>
@@ -8186,72 +8806,75 @@
         <v>0</v>
       </c>
       <c r="X8">
+        <v>11</v>
+      </c>
+      <c r="Y8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="J9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -8260,10 +8883,13 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -8289,7 +8915,7 @@
         <v>11</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J10">
         <v>37</v>
@@ -8334,10 +8960,13 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
+        <v>3</v>
+      </c>
+      <c r="Y10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -8363,7 +8992,7 @@
         <v>15</v>
       </c>
       <c r="I11">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J11">
         <v>13</v>
@@ -8410,8 +9039,11 @@
       <c r="X11">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -8437,7 +9069,7 @@
         <v>20</v>
       </c>
       <c r="I12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>15</v>
@@ -8482,10 +9114,13 @@
         <v>1</v>
       </c>
       <c r="X12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
+        <v>9</v>
+      </c>
+      <c r="Y12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -8511,7 +9146,7 @@
         <v>12</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>10</v>
@@ -8556,10 +9191,13 @@
         <v>0</v>
       </c>
       <c r="X13">
+        <v>5</v>
+      </c>
+      <c r="Y13">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -8585,7 +9223,7 @@
         <v>13</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -8630,10 +9268,13 @@
         <v>0</v>
       </c>
       <c r="X14">
+        <v>4</v>
+      </c>
+      <c r="Y14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -8659,7 +9300,7 @@
         <v>18</v>
       </c>
       <c r="I15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>11</v>
@@ -8704,10 +9345,13 @@
         <v>0</v>
       </c>
       <c r="X15">
+        <v>5</v>
+      </c>
+      <c r="Y15">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -8733,7 +9377,7 @@
         <v>12</v>
       </c>
       <c r="I16">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>6</v>
@@ -8778,10 +9422,13 @@
         <v>0</v>
       </c>
       <c r="X16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
+        <v>6</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -8807,7 +9454,7 @@
         <v>13</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>8</v>
@@ -8852,10 +9499,13 @@
         <v>0</v>
       </c>
       <c r="X17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
+        <v>5</v>
+      </c>
+      <c r="Y17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -8881,7 +9531,7 @@
         <v>23</v>
       </c>
       <c r="I18">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>17</v>
@@ -8926,10 +9576,13 @@
         <v>0</v>
       </c>
       <c r="X18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
+        <v>8</v>
+      </c>
+      <c r="Y18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -8955,7 +9608,7 @@
         <v>16</v>
       </c>
       <c r="I19">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J19">
         <v>8</v>
@@ -9000,10 +9653,13 @@
         <v>1</v>
       </c>
       <c r="X19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24">
+        <v>6</v>
+      </c>
+      <c r="Y19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -9029,7 +9685,7 @@
         <v>16</v>
       </c>
       <c r="I20">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>18</v>
@@ -9074,10 +9730,13 @@
         <v>0</v>
       </c>
       <c r="X20">
+        <v>9</v>
+      </c>
+      <c r="Y20">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -9103,7 +9762,7 @@
         <v>19</v>
       </c>
       <c r="I21">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J21">
         <v>12</v>
@@ -9148,10 +9807,13 @@
         <v>0</v>
       </c>
       <c r="X21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24">
+        <v>5</v>
+      </c>
+      <c r="Y21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -9222,10 +9884,13 @@
         <v>0</v>
       </c>
       <c r="X22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -9298,78 +9963,161 @@
       <c r="X23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Y23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>13</v>
+      </c>
+      <c r="D24">
+        <v>9</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
         <v>8</v>
       </c>
-      <c r="C24">
-        <v>4</v>
-      </c>
-      <c r="D24">
-        <v>6</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24">
-        <v>4</v>
-      </c>
       <c r="H24">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K24">
         <v>7</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M24">
+        <v>5</v>
+      </c>
+      <c r="N24">
+        <v>4</v>
+      </c>
+      <c r="O24">
+        <v>5</v>
+      </c>
+      <c r="P24">
         <v>6</v>
       </c>
-      <c r="N24">
+      <c r="Q24">
         <v>5</v>
       </c>
-      <c r="O24">
+      <c r="R24">
+        <v>8</v>
+      </c>
+      <c r="S24">
         <v>6</v>
       </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>3</v>
-      </c>
-      <c r="R24">
-        <v>4</v>
-      </c>
-      <c r="S24">
-        <v>4</v>
-      </c>
       <c r="T24">
+        <v>9</v>
+      </c>
+      <c r="U24">
+        <v>5</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>23</v>
+      </c>
+      <c r="Y24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
         <v>6</v>
       </c>
-      <c r="U24">
-        <v>4</v>
-      </c>
-      <c r="V24">
-        <v>3</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>7</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+      <c r="M25">
+        <v>6</v>
+      </c>
+      <c r="N25">
+        <v>5</v>
+      </c>
+      <c r="O25">
+        <v>6</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>3</v>
+      </c>
+      <c r="R25">
+        <v>4</v>
+      </c>
+      <c r="S25">
+        <v>4</v>
+      </c>
+      <c r="T25">
+        <v>6</v>
+      </c>
+      <c r="U25">
+        <v>4</v>
+      </c>
+      <c r="V25">
+        <v>3</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>4</v>
+      </c>
+      <c r="Y25">
         <v>15</v>
       </c>
     </row>
@@ -9380,13 +10128,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9456,8 +10204,11 @@
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -9530,8 +10281,11 @@
       <c r="X2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -9604,8 +10358,11 @@
       <c r="X3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Y3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -9678,8 +10435,11 @@
       <c r="X4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -9752,8 +10512,11 @@
       <c r="X5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -9826,8 +10589,11 @@
       <c r="X6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Y6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -9900,8 +10666,11 @@
       <c r="X7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="Y7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -9974,8 +10743,11 @@
       <c r="X8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Y8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -10048,8 +10820,11 @@
       <c r="X9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -10122,8 +10897,11 @@
       <c r="X10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="Y10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -10196,8 +10974,11 @@
       <c r="X11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -10270,8 +11051,11 @@
       <c r="X12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="Y12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -10344,8 +11128,11 @@
       <c r="X13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="Y13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -10418,8 +11205,11 @@
       <c r="X14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="Y14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -10492,8 +11282,11 @@
       <c r="X15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="Y15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -10566,8 +11359,11 @@
       <c r="X16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="Y16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -10640,8 +11436,11 @@
       <c r="X17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="Y17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -10714,8 +11513,11 @@
       <c r="X18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="Y18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -10788,8 +11590,11 @@
       <c r="X19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="Y19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -10862,8 +11667,11 @@
       <c r="X20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="Y20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -10936,8 +11744,11 @@
       <c r="X21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="Y21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -11010,8 +11821,11 @@
       <c r="X22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:24">
+      <c r="Y22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -11084,8 +11898,11 @@
       <c r="X23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Y23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -11156,6 +11973,86 @@
         <v>0</v>
       </c>
       <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
         <v>0</v>
       </c>
     </row>
@@ -11166,13 +12063,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11242,8 +12139,11 @@
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -11269,7 +12169,7 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -11314,10 +12214,13 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -11343,7 +12246,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -11388,10 +12291,13 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -11464,8 +12370,11 @@
       <c r="X4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -11536,10 +12445,13 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -11612,8 +12524,11 @@
       <c r="X6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Y6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -11686,8 +12601,11 @@
       <c r="X7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="Y7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -11760,16 +12678,19 @@
       <c r="X8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Y8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -11787,28 +12708,28 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -11834,8 +12755,11 @@
       <c r="X9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -11861,7 +12785,7 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>3</v>
@@ -11906,10 +12830,13 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -11982,8 +12909,11 @@
       <c r="X11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -12009,7 +12939,7 @@
         <v>3</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -12054,10 +12984,13 @@
         <v>0</v>
       </c>
       <c r="X12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -12128,10 +13061,13 @@
         <v>0</v>
       </c>
       <c r="X13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -12157,7 +13093,7 @@
         <v>3</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -12202,10 +13138,13 @@
         <v>0</v>
       </c>
       <c r="X14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -12276,10 +13215,13 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -12305,7 +13247,7 @@
         <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -12350,10 +13292,13 @@
         <v>0</v>
       </c>
       <c r="X16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -12424,10 +13369,13 @@
         <v>0</v>
       </c>
       <c r="X17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -12500,8 +13448,11 @@
       <c r="X18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="Y18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -12574,8 +13525,11 @@
       <c r="X19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="Y19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -12646,10 +13600,13 @@
         <v>0</v>
       </c>
       <c r="X20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -12722,8 +13679,11 @@
       <c r="X21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="Y21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -12794,10 +13754,13 @@
         <v>0</v>
       </c>
       <c r="X22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -12870,22 +13833,25 @@
       <c r="X23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Y23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -12900,28 +13866,28 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -12930,18 +13896,98 @@
         <v>0</v>
       </c>
       <c r="T24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24">
         <v>0</v>
       </c>
       <c r="V24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
         <v>1</v>
       </c>
     </row>
@@ -12952,13 +13998,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13028,8 +14074,11 @@
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -13055,7 +14104,7 @@
         <v>0.2</v>
       </c>
       <c r="I2">
-        <v>0.1818181818181818</v>
+        <v>0.5</v>
       </c>
       <c r="J2">
         <v>0.2857142857142857</v>
@@ -13100,10 +14149,13 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -13129,7 +14181,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0.5</v>
@@ -13174,10 +14226,13 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -13250,8 +14305,11 @@
       <c r="X4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -13277,7 +14335,7 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="I5">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -13322,10 +14380,13 @@
         <v>0</v>
       </c>
       <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
         <v>0.3333333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -13398,8 +14459,11 @@
       <c r="X6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Y6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -13472,8 +14536,11 @@
       <c r="X7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="Y7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -13499,7 +14566,7 @@
         <v>0.2380952380952381</v>
       </c>
       <c r="I8">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>0.5</v>
@@ -13546,22 +14613,25 @@
       <c r="X8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Y8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1818181818181818</v>
+        <v>0.5</v>
       </c>
       <c r="C9">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -13570,46 +14640,46 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0.125</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
         <v>0.5</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0.25</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0.25</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0.1666666666666667</v>
-      </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -13620,8 +14690,11 @@
       <c r="X9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -13647,7 +14720,7 @@
         <v>0.5</v>
       </c>
       <c r="I10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0.3</v>
@@ -13692,10 +14765,13 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -13768,8 +14844,11 @@
       <c r="X11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -13795,7 +14874,7 @@
         <v>0.375</v>
       </c>
       <c r="I12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>0.5</v>
@@ -13840,10 +14919,13 @@
         <v>0</v>
       </c>
       <c r="X12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
+        <v>0.2</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -13914,10 +14996,13 @@
         <v>0</v>
       </c>
       <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
         <v>0.3333333333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -13943,7 +15028,7 @@
         <v>0.5</v>
       </c>
       <c r="I14">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0.5</v>
@@ -13988,10 +15073,13 @@
         <v>0</v>
       </c>
       <c r="X14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -14062,10 +15150,13 @@
         <v>0</v>
       </c>
       <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -14091,7 +15182,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="I16">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0.25</v>
@@ -14136,10 +15227,13 @@
         <v>0</v>
       </c>
       <c r="X16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -14210,10 +15304,13 @@
         <v>0</v>
       </c>
       <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
         <v>0.3333333333333333</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -14286,8 +15383,11 @@
       <c r="X18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="Y18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -14313,7 +15413,7 @@
         <v>0.375</v>
       </c>
       <c r="I19">
-        <v>0.1666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -14360,8 +15460,11 @@
       <c r="X19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="Y19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -14432,10 +15535,13 @@
         <v>0</v>
       </c>
       <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -14461,7 +15567,7 @@
         <v>0.375</v>
       </c>
       <c r="I21">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J21">
         <v>0.25</v>
@@ -14508,8 +15614,11 @@
       <c r="X21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="Y21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -14580,10 +15689,13 @@
         <v>0</v>
       </c>
       <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -14656,78 +15768,161 @@
       <c r="X23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Y23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0.2</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
         <v>0.3333333333333333</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
         <v>0.3333333333333333</v>
       </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0.25</v>
       </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0.3333333333333333</v>
       </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
         <v>0.2</v>
       </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
         <v>0.5</v>
       </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
         <v>0.1111111111111111</v>
       </c>
     </row>
@@ -14738,13 +15933,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14814,8 +16009,11 @@
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -14841,7 +16039,7 @@
         <v>-0.5187889077532541</v>
       </c>
       <c r="I2">
-        <v>-1.785964912280702</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="J2">
         <v>-0.4274193548387096</v>
@@ -14886,10 +16084,13 @@
         <v>0</v>
       </c>
       <c r="X2">
+        <v>-2.119298245614035</v>
+      </c>
+      <c r="Y2">
         <v>-0.9929824561403509</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -14915,7 +16116,7 @@
         <v>-1.326315789473684</v>
       </c>
       <c r="I3">
-        <v>-0.8263157894736843</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0.35752688172043</v>
@@ -14960,10 +16161,13 @@
         <v>0</v>
       </c>
       <c r="X3">
+        <v>-0.8263157894736843</v>
+      </c>
+      <c r="Y3">
         <v>-0.9692982456140351</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -14989,7 +16193,7 @@
         <v>-0.07631578947368417</v>
       </c>
       <c r="I4">
-        <v>-1.485964912280702</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="J4">
         <v>-0.760752688172043</v>
@@ -15034,10 +16238,13 @@
         <v>0</v>
       </c>
       <c r="X4">
+        <v>-1.152631578947368</v>
+      </c>
+      <c r="Y4">
         <v>-0.7166666666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -15063,7 +16270,7 @@
         <v>-1.292982456140351</v>
       </c>
       <c r="I5">
-        <v>-0.5999999999999999</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="J5">
         <v>-0.5591397849462365</v>
@@ -15108,10 +16315,13 @@
         <v>0</v>
       </c>
       <c r="X5">
+        <v>-1.266666666666667</v>
+      </c>
+      <c r="Y5">
         <v>0.1710526315789474</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -15137,7 +16347,7 @@
         <v>-0.6687889077532541</v>
       </c>
       <c r="I6">
-        <v>-1.026315789473684</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="J6">
         <v>0.3575268817204301</v>
@@ -15182,10 +16392,13 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
+        <v>-0.6929824561403508</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -15211,7 +16424,7 @@
         <v>-0.6687889077532543</v>
       </c>
       <c r="I7">
-        <v>-1.016666666666667</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -15256,10 +16469,13 @@
         <v>0</v>
       </c>
       <c r="X7">
+        <v>-1.016666666666667</v>
+      </c>
+      <c r="Y7">
         <v>-0.7166666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -15285,7 +16501,7 @@
         <v>-1.597226938313526</v>
       </c>
       <c r="I8">
-        <v>-1.292982456140351</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="J8">
         <v>0.35752688172043</v>
@@ -15330,72 +16546,75 @@
         <v>0</v>
       </c>
       <c r="X8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
+        <v>-1.959649122807017</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-1.785964912280702</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="C9">
-        <v>-0.8263157894736843</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>-1.485964912280702</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="E9">
-        <v>-0.5999999999999999</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="F9">
-        <v>-1.026315789473684</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>-1.016666666666667</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>-1.292982456140351</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="I9">
-        <v>-3.362280701754386</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2499999999999999</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="K9">
-        <v>-1.878947368421053</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="L9">
-        <v>-0.55</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="M9">
-        <v>-0.5763157894736841</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>-0.4166666666666667</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="O9">
-        <v>-0.8859649122807016</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="P9">
-        <v>-0.4666666666666667</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="Q9">
-        <v>-1.152631578947368</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>-0.9096491228070176</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="S9">
-        <v>-1.583333333333333</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="T9">
-        <v>-1.926315789473684</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="U9">
-        <v>-1.05</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -15404,10 +16623,13 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-0.9929824561403509</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -15433,7 +16655,7 @@
         <v>0.35752688172043</v>
       </c>
       <c r="I10">
-        <v>0.2499999999999999</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="J10">
         <v>-0.06989247311827962</v>
@@ -15478,10 +16700,13 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
+        <v>0.5833333333333333</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -15507,7 +16732,7 @@
         <v>-0.1354555744199206</v>
       </c>
       <c r="I11">
-        <v>-1.878947368421053</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="J11">
         <v>-0.3440860215053763</v>
@@ -15552,10 +16777,13 @@
         <v>0</v>
       </c>
       <c r="X11">
+        <v>-1.545614035087719</v>
+      </c>
+      <c r="Y11">
         <v>-1.385964912280702</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -15581,7 +16809,7 @@
         <v>-0.3021222410865873</v>
       </c>
       <c r="I12">
-        <v>-0.55</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="J12">
         <v>0.60752688172043</v>
@@ -15626,10 +16854,13 @@
         <v>0</v>
       </c>
       <c r="X12">
+        <v>-1.216666666666667</v>
+      </c>
+      <c r="Y12">
         <v>-0.2763157894736842</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -15655,7 +16886,7 @@
         <v>-0.6091397849462366</v>
       </c>
       <c r="I13">
-        <v>-0.5763157894736841</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>-0.6774193548387096</v>
@@ -15700,10 +16931,13 @@
         <v>0</v>
       </c>
       <c r="X13">
+        <v>-0.5763157894736841</v>
+      </c>
+      <c r="Y13">
         <v>0.1710526315789474</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -15729,7 +16963,7 @@
         <v>0.3908602150537636</v>
       </c>
       <c r="I14">
-        <v>-0.4166666666666667</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="J14">
         <v>0.2499999999999999</v>
@@ -15774,10 +17008,13 @@
         <v>0</v>
       </c>
       <c r="X14">
+        <v>-0.08333333333333337</v>
+      </c>
+      <c r="Y14">
         <v>-0.9692982456140351</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -15803,7 +17040,7 @@
         <v>-1.192982456140351</v>
       </c>
       <c r="I15">
-        <v>-0.8859649122807016</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -15848,10 +17085,13 @@
         <v>0</v>
       </c>
       <c r="X15">
+        <v>-0.5526315789473684</v>
+      </c>
+      <c r="Y15">
         <v>0.4473684210526316</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -15877,7 +17117,7 @@
         <v>0.007526881720430145</v>
       </c>
       <c r="I16">
-        <v>-0.4666666666666667</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="J16">
         <v>0.1317204301075268</v>
@@ -15922,10 +17162,13 @@
         <v>0</v>
       </c>
       <c r="X16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
+        <v>-0.1333333333333334</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -15951,7 +17194,7 @@
         <v>-1.188087153367289</v>
       </c>
       <c r="I17">
-        <v>-1.152631578947368</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0.3333333333333334</v>
@@ -15996,10 +17239,13 @@
         <v>0</v>
       </c>
       <c r="X17">
+        <v>-1.152631578947368</v>
+      </c>
+      <c r="Y17">
         <v>0.4236842105263158</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -16025,7 +17271,7 @@
         <v>-0.3</v>
       </c>
       <c r="I18">
-        <v>-0.9096491228070176</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="J18">
         <v>0.3333333333333334</v>
@@ -16070,10 +17316,13 @@
         <v>0</v>
       </c>
       <c r="X18">
+        <v>-0.5763157894736841</v>
+      </c>
+      <c r="Y18">
         <v>-0.6929824561403508</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -16099,7 +17348,7 @@
         <v>-0.1359649122807015</v>
       </c>
       <c r="I19">
-        <v>-1.583333333333333</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="J19">
         <v>0.5833333333333333</v>
@@ -16144,10 +17393,13 @@
         <v>0</v>
       </c>
       <c r="X19">
+        <v>-1.916666666666667</v>
+      </c>
+      <c r="Y19">
         <v>-0.4166666666666667</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -16173,7 +17425,7 @@
         <v>-1.328438030560272</v>
       </c>
       <c r="I20">
-        <v>-1.926315789473684</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="J20">
         <v>-0.3440860215053763</v>
@@ -16218,10 +17470,13 @@
         <v>0</v>
       </c>
       <c r="X20">
+        <v>-1.592982456140351</v>
+      </c>
+      <c r="Y20">
         <v>-0.5456140350877192</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -16247,7 +17502,7 @@
         <v>1.05752688172043</v>
       </c>
       <c r="I21">
-        <v>-1.05</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="J21">
         <v>-0.3091397849462366</v>
@@ -16292,10 +17547,13 @@
         <v>0</v>
       </c>
       <c r="X21">
+        <v>-1.383333333333333</v>
+      </c>
+      <c r="Y21">
         <v>-0.4166666666666667</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -16366,10 +17624,13 @@
         <v>0</v>
       </c>
       <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
         <v>0.4473684210526316</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -16442,78 +17703,161 @@
       <c r="X23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Y23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24">
+        <v>-2.119298245614035</v>
+      </c>
+      <c r="C24">
+        <v>-0.8263157894736843</v>
+      </c>
+      <c r="D24">
+        <v>-1.152631578947368</v>
+      </c>
+      <c r="E24">
+        <v>-1.266666666666667</v>
+      </c>
+      <c r="F24">
+        <v>-0.6929824561403508</v>
+      </c>
+      <c r="G24">
+        <v>-1.016666666666667</v>
+      </c>
+      <c r="H24">
+        <v>-1.959649122807017</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.5833333333333333</v>
+      </c>
+      <c r="K24">
+        <v>-1.545614035087719</v>
+      </c>
+      <c r="L24">
+        <v>-1.216666666666667</v>
+      </c>
+      <c r="M24">
+        <v>-0.5763157894736841</v>
+      </c>
+      <c r="N24">
+        <v>-0.08333333333333337</v>
+      </c>
+      <c r="O24">
+        <v>-0.5526315789473684</v>
+      </c>
+      <c r="P24">
+        <v>-0.1333333333333334</v>
+      </c>
+      <c r="Q24">
+        <v>-1.152631578947368</v>
+      </c>
+      <c r="R24">
+        <v>-0.5763157894736841</v>
+      </c>
+      <c r="S24">
+        <v>-1.916666666666667</v>
+      </c>
+      <c r="T24">
+        <v>-1.592982456140351</v>
+      </c>
+      <c r="U24">
+        <v>-1.383333333333333</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>-3.362280701754386</v>
+      </c>
+      <c r="Y24">
         <v>-0.9929824561403509</v>
       </c>
-      <c r="C24">
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>-0.9929824561403509</v>
+      </c>
+      <c r="C25">
         <v>-0.9692982456140351</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>-0.7166666666666667</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>0.1710526315789474</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>-0.7166666666666667</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>-1.385964912280702</v>
+      </c>
+      <c r="L25">
+        <v>-0.2763157894736842</v>
+      </c>
+      <c r="M25">
+        <v>0.1710526315789474</v>
+      </c>
+      <c r="N25">
+        <v>-0.9692982456140351</v>
+      </c>
+      <c r="O25">
+        <v>0.4473684210526316</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.4236842105263158</v>
+      </c>
+      <c r="R25">
+        <v>-0.6929824561403508</v>
+      </c>
+      <c r="S25">
+        <v>-0.4166666666666667</v>
+      </c>
+      <c r="T25">
+        <v>-0.5456140350877192</v>
+      </c>
+      <c r="U25">
+        <v>-0.4166666666666667</v>
+      </c>
+      <c r="V25">
+        <v>0.4473684210526316</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
         <v>-0.9929824561403509</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>-1.385964912280702</v>
-      </c>
-      <c r="L24">
-        <v>-0.2763157894736842</v>
-      </c>
-      <c r="M24">
-        <v>0.1710526315789474</v>
-      </c>
-      <c r="N24">
-        <v>-0.9692982456140351</v>
-      </c>
-      <c r="O24">
-        <v>0.4473684210526316</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0.4236842105263158</v>
-      </c>
-      <c r="R24">
-        <v>-0.6929824561403508</v>
-      </c>
-      <c r="S24">
-        <v>-0.4166666666666667</v>
-      </c>
-      <c r="T24">
-        <v>-0.5456140350877192</v>
-      </c>
-      <c r="U24">
-        <v>-0.4166666666666667</v>
-      </c>
-      <c r="V24">
-        <v>0.4473684210526316</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
+      <c r="Y25">
         <v>-1.23859649122807</v>
       </c>
     </row>
@@ -16524,13 +17868,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16600,8 +17944,11 @@
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -16627,7 +17974,7 @@
         <v>7</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -16672,10 +18019,13 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+        <v>2</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -16701,7 +18051,7 @@
         <v>4</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>4</v>
@@ -16746,10 +18096,13 @@
         <v>1</v>
       </c>
       <c r="X3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+        <v>5</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -16775,7 +18128,7 @@
         <v>6</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>4</v>
@@ -16822,8 +18175,11 @@
       <c r="X4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -16896,8 +18252,11 @@
       <c r="X5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -16923,7 +18282,7 @@
         <v>5</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -16968,10 +18327,13 @@
         <v>1</v>
       </c>
       <c r="X6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
+        <v>2</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -16997,7 +18359,7 @@
         <v>9</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -17042,10 +18404,13 @@
         <v>1</v>
       </c>
       <c r="X7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
+        <v>4</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -17071,7 +18436,7 @@
         <v>16</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>5</v>
@@ -17116,72 +18481,75 @@
         <v>0</v>
       </c>
       <c r="X8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
+        <v>3</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -17192,8 +18560,11 @@
       <c r="X9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -17219,7 +18590,7 @@
         <v>5</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>14</v>
@@ -17266,8 +18637,11 @@
       <c r="X10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="Y10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -17293,7 +18667,7 @@
         <v>4</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>5</v>
@@ -17338,10 +18712,13 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
+        <v>2</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -17367,7 +18744,7 @@
         <v>6</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>4</v>
@@ -17412,10 +18789,13 @@
         <v>1</v>
       </c>
       <c r="X12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
+        <v>3</v>
+      </c>
+      <c r="Y12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -17441,7 +18821,7 @@
         <v>3</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>4</v>
@@ -17486,10 +18866,13 @@
         <v>0</v>
       </c>
       <c r="X13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
+        <v>3</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -17560,10 +18943,13 @@
         <v>0</v>
       </c>
       <c r="X14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -17589,7 +18975,7 @@
         <v>6</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -17634,10 +19020,13 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
+        <v>3</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -17663,7 +19052,7 @@
         <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -17708,10 +19097,13 @@
         <v>0</v>
       </c>
       <c r="X16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -17737,7 +19129,7 @@
         <v>2</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -17782,10 +19174,13 @@
         <v>0</v>
       </c>
       <c r="X17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -17811,7 +19206,7 @@
         <v>10</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>9</v>
@@ -17856,10 +19251,13 @@
         <v>0</v>
       </c>
       <c r="X18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
+        <v>4</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -17885,7 +19283,7 @@
         <v>6</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -17930,10 +19328,13 @@
         <v>1</v>
       </c>
       <c r="X19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24">
+        <v>2</v>
+      </c>
+      <c r="Y19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -17959,7 +19360,7 @@
         <v>4</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>8</v>
@@ -18004,10 +19405,13 @@
         <v>0</v>
       </c>
       <c r="X20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24">
+        <v>2</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -18033,7 +19437,7 @@
         <v>7</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -18078,10 +19482,13 @@
         <v>0</v>
       </c>
       <c r="X21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24">
+        <v>2</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -18152,10 +19559,13 @@
         <v>0</v>
       </c>
       <c r="X22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -18228,16 +19638,19 @@
       <c r="X23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Y23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -18246,13 +19659,13 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -18261,45 +19674,125 @@
         <v>2</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
+        <v>7</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>3</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
         <v>3</v>
       </c>
     </row>
@@ -18310,13 +19803,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18386,8 +19879,11 @@
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -18413,7 +19909,7 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="I2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0.25</v>
@@ -18458,10 +19954,13 @@
         <v>0</v>
       </c>
       <c r="X2">
+        <v>0.5</v>
+      </c>
+      <c r="Y2">
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -18487,7 +19986,7 @@
         <v>0.4</v>
       </c>
       <c r="I3">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0.5</v>
@@ -18532,10 +20031,13 @@
         <v>1</v>
       </c>
       <c r="X3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -18561,7 +20063,7 @@
         <v>0.4</v>
       </c>
       <c r="I4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0.5714285714285714</v>
@@ -18606,10 +20108,13 @@
         <v>1</v>
       </c>
       <c r="X4">
+        <v>0.25</v>
+      </c>
+      <c r="Y4">
         <v>0.3333333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -18682,8 +20187,11 @@
       <c r="X5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -18709,7 +20217,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="I6">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0.5</v>
@@ -18756,8 +20264,11 @@
       <c r="X6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Y6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -18783,7 +20294,7 @@
         <v>0.6</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0.4285714285714285</v>
@@ -18828,10 +20339,13 @@
         <v>1</v>
       </c>
       <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -18857,7 +20371,7 @@
         <v>0.4705882352941176</v>
       </c>
       <c r="I8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0.5555555555555556</v>
@@ -18902,72 +20416,75 @@
         <v>0</v>
       </c>
       <c r="X8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
+        <v>0.5</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6363636363636364</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -18978,8 +20495,11 @@
       <c r="X9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -19005,7 +20525,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="I10">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0.5185185185185185</v>
@@ -19052,8 +20572,11 @@
       <c r="X10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="Y10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -19079,7 +20602,7 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="I11">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0.625</v>
@@ -19124,10 +20647,13 @@
         <v>0</v>
       </c>
       <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -19153,7 +20679,7 @@
         <v>0.5</v>
       </c>
       <c r="I12">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0.3636363636363636</v>
@@ -19198,10 +20724,13 @@
         <v>1</v>
       </c>
       <c r="X12">
+        <v>0.75</v>
+      </c>
+      <c r="Y12">
         <v>0.6666666666666666</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -19227,7 +20756,7 @@
         <v>0.375</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0.6666666666666666</v>
@@ -19272,10 +20801,13 @@
         <v>0</v>
       </c>
       <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
         <v>0.3333333333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -19346,10 +20878,13 @@
         <v>0</v>
       </c>
       <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -19375,7 +20910,7 @@
         <v>0.6</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0.5</v>
@@ -19420,10 +20955,13 @@
         <v>0</v>
       </c>
       <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -19449,7 +20987,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="I16">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0.5</v>
@@ -19494,10 +21032,13 @@
         <v>0</v>
       </c>
       <c r="X16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -19523,7 +21064,7 @@
         <v>0.5</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0.3333333333333333</v>
@@ -19568,10 +21109,13 @@
         <v>0</v>
       </c>
       <c r="X17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -19597,7 +21141,7 @@
         <v>0.4761904761904762</v>
       </c>
       <c r="I18">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0.6</v>
@@ -19642,10 +21186,13 @@
         <v>0</v>
       </c>
       <c r="X18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -19671,7 +21218,7 @@
         <v>0.75</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0.7142857142857143</v>
@@ -19718,8 +21265,11 @@
       <c r="X19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="Y19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -19745,7 +21295,7 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="I20">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0.5714285714285714</v>
@@ -19790,10 +21340,13 @@
         <v>0</v>
       </c>
       <c r="X20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -19819,7 +21372,7 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0.5</v>
@@ -19864,10 +21417,13 @@
         <v>0</v>
       </c>
       <c r="X21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -19938,10 +21494,13 @@
         <v>0</v>
       </c>
       <c r="X22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -20014,78 +21573,161 @@
       <c r="X23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Y23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24">
+        <v>0.5</v>
+      </c>
+      <c r="C24">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D24">
         <v>0.25</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0.5</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.75</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0.7</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.25</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
         <v>0.5</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
         <v>0.5</v>
       </c>
-      <c r="L24">
+      <c r="L25">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M24">
+      <c r="M25">
         <v>0.3333333333333333</v>
       </c>
-      <c r="N24">
+      <c r="N25">
         <v>0.5</v>
       </c>
-      <c r="O24">
+      <c r="O25">
         <v>0.5</v>
       </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>1</v>
-      </c>
-      <c r="S24">
-        <v>1</v>
-      </c>
-      <c r="T24">
-        <v>1</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>1</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
         <v>0.5</v>
       </c>
     </row>
